--- a/download/history.xlsx
+++ b/download/history.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23445" windowHeight="9765"/>
+    <workbookView windowWidth="25600" windowHeight="11220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>西欧</t>
   </si>
@@ -43,6 +43,9 @@
     <t>迦太基</t>
   </si>
   <si>
+    <t>巴门尼德《论自然》</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -56,9 +59,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>创立</t>
     </r>
@@ -75,9 +76,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 （阿契美尼德王朝）</t>
@@ -87,28 +86,57 @@
     <t>罗马共和国</t>
   </si>
   <si>
-    <t>帕特农神庙
+    <r>
+      <t xml:space="preserve">帕特农神庙
 希罗多德《历史》希波战争
 修昔底德《伯罗奔尼撒战争史》
-苏格拉底</t>
-  </si>
-  <si>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏格拉底</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>柏拉图《理想国》</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">柏拉图《理想国》
-亚里士多德《政治学》
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亚里士多德《政治学》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
@@ -118,9 +146,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>马其顿帝国 希腊化</t>
     </r>
@@ -161,9 +187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>入侵</t>
     </r>
@@ -217,9 +241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">入侵
 </t>
@@ -235,16 +257,33 @@
     </r>
   </si>
   <si>
-    <t>420年圣奥古斯丁《上帝之城》</t>
+    <r>
+      <t>420年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圣奥古斯丁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《上帝之城》</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>476年</t>
     </r>
@@ -272,9 +311,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 圣索菲亚教堂</t>
     </r>
@@ -354,9 +391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>横行</t>
     </r>
@@ -415,10 +450,27 @@
         <color rgb="FF008000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-托马斯·阿奎那《神学大学》经院哲学</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>托马斯·阿奎那</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《神学大学》经院哲学</t>
     </r>
   </si>
   <si>
@@ -432,9 +484,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1337年英法百年战争开始
 </t>
@@ -477,14 +527,52 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1513年马基雅维利《君主论》
+      <t>1513年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马基雅维利《君主论》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 1520年伊拉斯谟精神广为传播
-1517年马丁路德《九十五条纲论》
+1517年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马丁路德</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《九十五条纲论》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -514,9 +602,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t>1618-1648年</t>
     </r>
@@ -527,7 +613,6 @@
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">三十年战争 </t>
     </r>
@@ -536,7 +621,6 @@
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>宗教减弱</t>
     </r>
@@ -544,9 +628,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
 科学革命
@@ -554,6 +636,9 @@
     </r>
   </si>
   <si>
+    <t>1641年笛卡尔《第一哲学沉思录》</t>
+  </si>
+  <si>
     <t>启蒙运动
 法国大革命</t>
   </si>
@@ -580,9 +665,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 法兰西帝国</t>
     </r>
@@ -601,9 +684,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 重要帝王</t>
     </r>
@@ -622,9 +703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 强大入侵者</t>
     </r>
@@ -643,11 +722,22 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> - 基督教事件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>海蓝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - 重要哲学家</t>
     </r>
   </si>
 </sst>
@@ -656,24 +746,48 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="36"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.25"/>
@@ -682,23 +796,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -713,54 +810,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -768,44 +872,30 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -813,46 +903,66 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -864,7 +974,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -883,27 +993,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -917,36 +1027,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -959,199 +1075,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1259,30 +1369,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1294,41 +1380,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,8 +1407,62 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1361,152 +1471,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,216 +1641,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2007,17 +2129,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="4" max="7" width="35.625" customWidth="1"/>
@@ -2054,461 +2176,465 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
     </row>
     <row r="3" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="7"/>
       <c r="C3" s="5">
         <v>-1100</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="34"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
         <v>-1000</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="7"/>
       <c r="C5" s="5">
         <v>-900</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>-800</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="34" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A7" s="9"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>-700</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>-600</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="35" t="s">
         <v>9</v>
       </c>
+      <c r="G8" s="36" t="s">
+        <v>10</v>
+      </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" ht="54" spans="1:8">
-      <c r="A9" s="9"/>
+    <row r="9" ht="68" spans="1:8">
+      <c r="A9" s="8"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>-500</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="F9" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A10" s="9"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>-400</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="9"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="38" t="s">
         <v>13</v>
       </c>
+      <c r="G10" s="39" t="s">
+        <v>14</v>
+      </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A11" s="9"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>-300</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="22" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>-200</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A13" s="19"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="11">
         <v>-100</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="5"/>
     </row>
     <row r="14" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A14" s="19"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="20">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11">
         <v>100</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A15" s="19"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="20">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11">
         <v>200</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A16" s="19"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="20">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11">
         <v>300</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="24" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="43" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A17" s="19"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="20">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11">
         <v>400</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="24"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="43"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A18" s="9"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>500</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="28" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="45" t="s">
         <v>26</v>
       </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="46" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="5">
         <v>600</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="47" t="s">
         <v>28</v>
       </c>
+      <c r="G19" s="48" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="5">
         <v>700</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="31" t="s">
-        <v>29</v>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50" t="s">
+        <v>30</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A21" s="32"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="5">
         <v>800</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>30</v>
+      <c r="D21" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34" t="s">
-        <v>31</v>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52" t="s">
+        <v>32</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" ht="50.1" customHeight="1" spans="1:8">
       <c r="A22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="5">
         <v>900</v>
       </c>
-      <c r="D22" s="35" t="s">
-        <v>33</v>
+      <c r="D22" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="49"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" ht="50.1" customHeight="1" spans="1:8">
       <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="5">
         <v>1000</v>
       </c>
-      <c r="D23" s="36" t="s">
-        <v>34</v>
+      <c r="D23" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="49"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" ht="50.1" customHeight="1" spans="1:8">
       <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="5">
         <v>1100</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="38" t="s">
+      <c r="D24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="39" t="s">
+      <c r="E24" s="53" t="s">
         <v>37</v>
+      </c>
+      <c r="F24" s="49"/>
+      <c r="G24" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" ht="50.1" customHeight="1" spans="1:7">
       <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="5">
         <v>1200</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>38</v>
+      <c r="D25" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>39</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="50.1" customHeight="1" spans="1:8">
       <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="5">
         <v>1300</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="42" t="s">
+      <c r="D26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="E26" s="56" t="s">
         <v>42</v>
       </c>
+      <c r="F26" s="51" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="34" t="s">
-        <v>43</v>
+      <c r="H26" s="52" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" ht="50.1" customHeight="1" spans="1:8">
       <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="5">
         <v>1400</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="44" t="s">
+      <c r="D27" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="46" t="s">
+      <c r="E27" s="57" t="s">
         <v>46</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="59" t="s">
+        <v>47</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" ht="50.1" customHeight="1" spans="1:8">
       <c r="A28" s="7"/>
-      <c r="B28" s="32"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="5">
         <v>1500</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>47</v>
+      <c r="D28" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="F28" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="61"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" ht="54" spans="1:8">
+    <row r="29" ht="68" spans="1:8">
       <c r="A29" s="7"/>
-      <c r="B29" s="49"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="5">
         <v>1600</v>
       </c>
-      <c r="D29" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="48"/>
+      <c r="E29" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="61"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" ht="50.1" customHeight="1" spans="1:8">
       <c r="A30" s="7"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="5">
         <v>1700</v>
       </c>
-      <c r="D30" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="5"/>
+      <c r="D30" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="48"/>
+      <c r="G30" s="61"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" ht="50.1" customHeight="1" spans="1:8">
       <c r="A31" s="7"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27">
         <v>1800</v>
       </c>
-      <c r="D31" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="53"/>
+      <c r="D31" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
       <c r="A32" s="5"/>
@@ -2516,28 +2642,33 @@
       <c r="C32" s="5">
         <v>1900</v>
       </c>
-      <c r="D32" s="56" t="s">
-        <v>54</v>
+      <c r="D32" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="48"/>
+      <c r="G32" s="61"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="4:5">
-      <c r="D33" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="58"/>
-    </row>
-    <row r="34" s="2" customFormat="1" spans="4:4">
-      <c r="D34" s="59" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="4:4">
-      <c r="D35" s="60" t="s">
+    <row r="33" s="2" customFormat="1" ht="17" spans="4:5">
+      <c r="D33" s="30" t="s">
         <v>57</v>
+      </c>
+      <c r="E33" s="64"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="17" spans="4:4">
+      <c r="D34" s="31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="17" spans="4:4">
+      <c r="D35" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" ht="17" spans="4:4">
+      <c r="D36" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
